--- a/Tradutor_BaixoCusto/ES2N-Requisitos_Funcionais_v2.0 rev 2809.xlsx
+++ b/Tradutor_BaixoCusto/ES2N-Requisitos_Funcionais_v2.0 rev 2809.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aulas2023_2sem\AtividadesProjetosES2\JACU_BIRD\Tradutor_BaixoCusto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\eng_soft2\Jacu_Bird\Tradutor_BaixoCusto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE680ED7-8C96-4A4B-AC78-81188BD9BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD6BD65-C01E-4CC2-995E-44E336F38FB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
   </si>
@@ -61,9 +52,6 @@
   </si>
   <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>RF03</t>
   </si>
   <si>
     <r>
@@ -154,9 +142,6 @@
     <t>Gerar Notificações e Lembretes</t>
   </si>
   <si>
-    <t>Exibir Calendário de Agendamento</t>
-  </si>
-  <si>
     <t>RF09</t>
   </si>
   <si>
@@ -233,61 +218,13 @@
     </r>
   </si>
   <si>
-    <t>RF13</t>
-  </si>
-  <si>
-    <t>RF14</t>
-  </si>
-  <si>
-    <t>RF15</t>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>RF18</t>
-  </si>
-  <si>
-    <t>RF19</t>
-  </si>
-  <si>
-    <t>Gerenciar câmera</t>
-  </si>
-  <si>
     <t>Essa requisito permite ao sistema gerar notificações por push e lembretes de seus compromissos.</t>
   </si>
   <si>
-    <t>Gerenciar Pontuação</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao sistema implementar uma pontução para motivar os usuários.</t>
-  </si>
-  <si>
-    <t>Gerenciar Progresso de aprendizado</t>
-  </si>
-  <si>
-    <t>Praticar Conversação</t>
-  </si>
-  <si>
-    <t>Fornecer Conteúdo de aprendizado</t>
-  </si>
-  <si>
-    <t>Realizar Testes e Avaliações</t>
-  </si>
-  <si>
-    <t>Dar Assistência ao vivo</t>
-  </si>
-  <si>
     <t>Pode executar RF12</t>
   </si>
   <si>
     <t>Realizar Avaliação</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao usuário NÃO SERIA O ADM??] receber uma confirmação de que a denúncia foi registrada e está sendo investigada.</t>
   </si>
   <si>
     <r>
@@ -315,28 +252,10 @@
     </r>
   </si>
   <si>
-    <t>Esse requisito permite ao sistema criar uma categoria pelo usuário utilizando a câmera do aparelho para realizar uma reunião. Reuniao??</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao sistema disponibilizar suporte ao vivo ou de suporte para dúvidas urgentes. ????</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao usuário realizar testes e avaliações para medir o seu nivel de conhecimento em inglês. ???? Mas essas questoes irao ficar fixas?? Ou o adm pode interferir, caso sim tera que ter um Gerenciar Testes e Avaliacoes</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao usuário acompanhar seu progresso de aprendizado. ???</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao sistema incluir recursos com falantes nativos. ??</t>
-  </si>
-  <si>
-    <t>Esse requisito permite ao sistema fornecer lições, exercícios e gramática. ??</t>
-  </si>
-  <si>
     <t>Pode executar RF06</t>
   </si>
   <si>
-    <t>Esse requisito permite ao usuário propor datas e horários para interações e eventos. Se for criar, alterar e excluir deve se chamar Gerenciar Calendário de Agendamentos??</t>
+    <t>Esse requisito o Administrador irá controlar qual a procedencia da denuncia que o usuario levantou durante o processo.</t>
   </si>
 </sst>
 </file>
@@ -438,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,7 +379,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,13 +697,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="47.6640625" customWidth="1"/>
@@ -799,15 +721,15 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="20.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="20.55" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="20.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="20.55" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -816,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="70.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -830,479 +752,359 @@
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="94.4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="93.6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="70.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="94.4" x14ac:dyDescent="0.45">
+      <c r="E11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>60</v>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="70.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="70.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="93.6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="70.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="94.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="21" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="70.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="22" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="70.8" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="23" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="118" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="24" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="47.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="25" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="47.2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="26" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="47.2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="27" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="47.2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="28" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
       <c r="D41" s="1"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
       <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1312,6 +1114,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="af317602-f812-4f22-a385-b6c4a4e3018b">
@@ -1338,15 +1149,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1527,19 +1329,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="af317602-f812-4f22-a385-b6c4a4e3018b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
